--- a/LuBan/cfgs/Datas/武器格子解锁.xlsx
+++ b/LuBan/cfgs/Datas/武器格子解锁.xlsx
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>10120001</v>
+        <v>10120004</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -1188,7 +1188,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>10120002</v>
+        <v>10120005</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>10120003</v>
+        <v>10120006</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
